--- a/biology/Zoologie/Dormilon_à_front_blanc/Dormilon_à_front_blanc.xlsx
+++ b/biology/Zoologie/Dormilon_à_front_blanc/Dormilon_à_front_blanc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_front_blanc</t>
+          <t>Dormilon_à_front_blanc</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Muscisaxicola albifrons
 Le Dormilon à front blanc (Muscisaxicola albifrons) est une espèce de passereau placée dans la famille des Tyrannidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_front_blanc</t>
+          <t>Dormilon_à_front_blanc</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Illustrations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Photos</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_front_blanc</t>
+          <t>Dormilon_à_front_blanc</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve en Bolivie, Chili et Pérou.
 </t>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Dormilon_%C3%A0_front_blanc</t>
+          <t>Dormilon_à_front_blanc</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est les zones de marais et de pâturage en haute montagne dans les régions tropicales et subtropicales.
 </t>
